--- a/result.xlsx
+++ b/result.xlsx
@@ -461,10 +461,22 @@
           <t>Table_1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Luca Várhegyi</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Oleh Bohatov</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Sarah Conor</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -472,10 +484,26 @@
           <t>Table_2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Maarten Knaepen</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mark Shevchenko</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Djager Al-Yussef</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Brian Daza</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -483,10 +511,22 @@
           <t>Table_3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Audrey De halleux</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Archana Singh</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Frank Sinatra</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -494,10 +534,26 @@
           <t>Table_4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jean Duffy</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Léa Konincks</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Mehmet Emin Çoban</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Nithyaraaj Kugalur Palanisamy</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -505,10 +561,26 @@
           <t>Table_5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Omar Hamdy</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Polina Yarova</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Hazem Ahmed</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Sisekelo Sinyolo</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -516,10 +588,22 @@
           <t>Table_6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sebastiaan Indesteege</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Mahak Behl</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Cédric El-Dib</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -468,13 +468,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Oleh Bohatov</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>Sisekelo Sinyolo</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Polina Yarova</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sarah Conor</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -486,22 +490,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maarten Knaepen</t>
+          <t>Mehmet Emin Çoban</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mark Shevchenko</t>
+          <t>Brian Daza</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Djager Al-Yussef</t>
+          <t>J</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Brian Daza</t>
+          <t>Hazem Ahmed</t>
         </is>
       </c>
     </row>
@@ -513,18 +517,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Audrey De halleux</t>
+          <t>Oleh Bohatov</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Archana Singh</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>Djager Al-Yussef</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Cédric El-Dib</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Frank Sinatra</t>
+          <t>Sebastiaan Indesteege</t>
         </is>
       </c>
     </row>
@@ -536,22 +544,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jean Duffy</t>
+          <t>Archana Singh</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Léa Konincks</t>
+          <t>Terminator</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Mehmet Emin Çoban</t>
+          <t>Mark Shevchenko</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Nithyaraaj Kugalur Palanisamy</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -563,22 +571,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Omar Hamdy</t>
+          <t>K</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Polina Yarova</t>
+          <t>Maarten Knaepen</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hazem Ahmed</t>
+          <t>Jean Duffy</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sisekelo Sinyolo</t>
+          <t>H</t>
         </is>
       </c>
     </row>
@@ -590,7 +598,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sebastiaan Indesteege</t>
+          <t>Omar Hamdy</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -598,10 +606,14 @@
           <t>Mahak Behl</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Léa Konincks</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Cédric El-Dib</t>
+          <t>Nithyaraaj Kugalur Palanisamy</t>
         </is>
       </c>
     </row>
